--- a/biology/Botanique/Cyathea/Cyathea.xlsx
+++ b/biology/Botanique/Cyathea/Cyathea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cyathea regroupe des espèces de fougères arborescentes tropicales de la famille des Cyatheaceae. Elle disposent le plus souvent d'une tige unique grimpant en hauteur, le tronc est rarement ramifié ou rampant. De nombreuses espèces ont aussi développé une masse fibreuse de racines à la base du tronc.
 On dénombre dans ce cas plus de 470 espèces qui poussent dans des forêts tropicales humides et tempérées.
@@ -514,12 +526,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taxonomie
-Le nom du genre Cyathea dérive du grec ancien kyatheion qui signifie « petite tasse » et qui fait référence à la structure qui contient les spores appelée sore.
-Systématique
-Le classement ci-dessous suit les conclusions de 1996 de Conant et al.. Cette classification se base sur les analyses moléculaires ADN des chloroplastes et morphologiques. Elle définit trois clades Alsophila et les clades Cyathea et Sphaeropteris qui semblent en dériver.
-Taxons incertains ou douteux
-Alsophila crassa Karsten, 1869
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Cyathea dérive du grec ancien kyatheion qui signifie « petite tasse » et qui fait référence à la structure qui contient les spores appelée sore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cyathea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyathea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le classement ci-dessous suit les conclusions de 1996 de Conant et al.. Cette classification se base sur les analyses moléculaires ADN des chloroplastes et morphologiques. Elle définit trois clades Alsophila et les clades Cyathea et Sphaeropteris qui semblent en dériver.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cyathea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyathea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons incertains ou douteux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alsophila crassa Karsten, 1869
 Cyathea affinis M. Martens &amp; Galeotti, 1842</t>
         </is>
       </c>
